--- a/CYZ_reorg/Matlab/seroprevalence.xlsx
+++ b/CYZ_reorg/Matlab/seroprevalence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\czhao\Documents\CYZ GITHUB\Weitz Group\COVID-19\Lopman Covid SeroPos\Serological_Shielding\CYZ_reorg\Matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35D2DA5-1DC7-4E84-B43E-DAC0D7E25824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A14077-F106-4C8F-896A-7339897F1A89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24195" yWindow="6960" windowWidth="6435" windowHeight="14040" xr2:uid="{CED4475F-42A9-4B33-8014-6D03C84C954B}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28110" windowHeight="15885" xr2:uid="{CED4475F-42A9-4B33-8014-6D03C84C954B}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
   <si>
     <t>location</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>conn</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
   </si>
 </sst>
 </file>
@@ -170,11 +176,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -490,15 +497,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E8E9D4-9875-4C1E-9667-0E029158E7E1}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="G31" sqref="A1:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -514,8 +530,14 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -531,8 +553,14 @@
       <c r="E2">
         <v>2.52</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="4">
+        <v>43913</v>
+      </c>
+      <c r="G2" s="4">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -548,8 +576,14 @@
       <c r="E3">
         <v>2.27</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="4">
+        <v>43913</v>
+      </c>
+      <c r="G3" s="4">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -565,8 +599,14 @@
       <c r="E4">
         <v>1.94</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="4">
+        <v>43913</v>
+      </c>
+      <c r="G4" s="4">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -582,8 +622,14 @@
       <c r="E5">
         <v>2.74</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="4">
+        <v>43913</v>
+      </c>
+      <c r="G5" s="4">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -599,8 +645,14 @@
       <c r="E6">
         <v>1.94</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="4">
+        <v>43913</v>
+      </c>
+      <c r="G6" s="4">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -616,8 +668,14 @@
       <c r="E7">
         <v>5.03</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="4">
+        <v>43913</v>
+      </c>
+      <c r="G7" s="4">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -633,8 +691,14 @@
       <c r="E8">
         <v>10.17</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="4">
+        <v>43913</v>
+      </c>
+      <c r="G8" s="4">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -650,8 +714,14 @@
       <c r="E9">
         <v>9.61</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="4">
+        <v>43913</v>
+      </c>
+      <c r="G9" s="4">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -667,8 +737,14 @@
       <c r="E10">
         <v>5.19</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="4">
+        <v>43913</v>
+      </c>
+      <c r="G10" s="4">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -684,8 +760,14 @@
       <c r="E11">
         <v>8.92</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="4">
+        <v>43913</v>
+      </c>
+      <c r="G11" s="4">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -701,8 +783,14 @@
       <c r="E12">
         <v>7.79</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="4">
+        <v>43927</v>
+      </c>
+      <c r="G12" s="4">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -718,8 +806,14 @@
       <c r="E13">
         <v>2.2200000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="4">
+        <v>43927</v>
+      </c>
+      <c r="G13" s="4">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -735,8 +829,14 @@
       <c r="E14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="4">
+        <v>43927</v>
+      </c>
+      <c r="G14" s="4">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -752,8 +852,14 @@
       <c r="E15">
         <v>4.45</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="4">
+        <v>43927</v>
+      </c>
+      <c r="G15" s="4">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -769,8 +875,14 @@
       <c r="E16">
         <v>3.23</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="4">
+        <v>43927</v>
+      </c>
+      <c r="G16" s="4">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -786,8 +898,14 @@
       <c r="E17">
         <v>4.1399999999999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="4">
+        <v>43941</v>
+      </c>
+      <c r="G17" s="4">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -803,8 +921,14 @@
       <c r="E18">
         <v>5.53</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="4">
+        <v>43941</v>
+      </c>
+      <c r="G18" s="4">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -820,8 +944,14 @@
       <c r="E19">
         <v>3.76</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="4">
+        <v>43941</v>
+      </c>
+      <c r="G19" s="4">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -837,8 +967,14 @@
       <c r="E20">
         <v>4.58</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="4">
+        <v>43941</v>
+      </c>
+      <c r="G20" s="4">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -854,16 +990,28 @@
       <c r="E21">
         <v>3.86</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="4">
+        <v>43941</v>
+      </c>
+      <c r="G21" s="4">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="4">
+        <v>43941</v>
+      </c>
+      <c r="G22" s="4">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -879,8 +1027,14 @@
       <c r="E23">
         <v>3.52</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="4">
+        <v>43941</v>
+      </c>
+      <c r="G23" s="4">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -896,8 +1050,14 @@
       <c r="E24">
         <v>5.21</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="4">
+        <v>43941</v>
+      </c>
+      <c r="G24" s="4">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -913,8 +1073,14 @@
       <c r="E25">
         <v>5.04</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="4">
+        <v>43941</v>
+      </c>
+      <c r="G25" s="4">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -930,8 +1096,14 @@
       <c r="E26">
         <v>3.43</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="4">
+        <v>43941</v>
+      </c>
+      <c r="G26" s="4">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -947,8 +1119,14 @@
       <c r="E27">
         <v>2.89</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="4">
+        <v>43947</v>
+      </c>
+      <c r="G27" s="4">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -964,8 +1142,14 @@
       <c r="E28">
         <v>9.2899999999999991</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="4">
+        <v>43947</v>
+      </c>
+      <c r="G28" s="4">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -981,8 +1165,14 @@
       <c r="E29">
         <v>11.64</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="4">
+        <v>43947</v>
+      </c>
+      <c r="G29" s="4">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -998,8 +1188,14 @@
       <c r="E30">
         <v>6.04</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="4">
+        <v>43947</v>
+      </c>
+      <c r="G30" s="4">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -1014,6 +1210,12 @@
       </c>
       <c r="E31">
         <v>6.52</v>
+      </c>
+      <c r="F31" s="4">
+        <v>43947</v>
+      </c>
+      <c r="G31" s="4">
+        <v>43954</v>
       </c>
     </row>
   </sheetData>
@@ -1026,7 +1228,7 @@
   <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
